--- a/biology/Histoire de la zoologie et de la botanique/Heiko_Bleher/Heiko_Bleher.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Heiko_Bleher/Heiko_Bleher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heiko Bleher (né le 18 octobre 1944 à Francfort-sur-le-Main) est un aventurier et ichtyologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né de l'union de Ludwig et Amanda Flora Hilda Bleher, il a été marqué par la spécialité de son grand-père Adolf Kiel, pionnier connu pour les plantes d'aquarium. Sa mère, toujours en quête de voyages et d'exploits, sillonna le monde à la recherche de plantes et de poissons et pratiqua différents sport en compétition à très haut niveau (moto-cross, tennis, ping-pong, patinage…).
 Après avoir fréquemment déménagé entre l'Afrique et l'Europe, puis à partir de 1959 en Amérique du Sud, Heiko Bleher a vécu une partie de son enfance au Brésil avec sa mère Amanda et ses trois grands frères où ils cherchaient des poissons d'ornement et des plantes aquatiques. Ils créèrent une entreprise d'élevage de poissons et de plantes dans la forêt vierge à proximité de Rio.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Biographie en français sur le site de son entreprise.
 (de)/(no) Cet article est partiellement ou en totalité issu des articles intitulés en allemand « Heiko Bleher » (voir la liste des auteurs) et en norvégien « Heiko Bleher » (voir la liste des auteurs).
